--- a/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_18Channel/4U1U3I3I3I.xlsx
+++ b/Carrick_AutomatedTest/Carrick_Automation/TestData/CablingDataSet/CablingDataSet_18Channel/4U1U3I3I3I.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD739613-7BF1-4238-8C9E-682F2E0D86F8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3759926B-0DF9-4974-B96C-E13F593DD0B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="-60" windowWidth="28920" windowHeight="15660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -1577,7 +1577,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,8 +1648,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1870,7 +1870,7 @@
         <v>109</v>
       </c>
       <c r="B27">
-        <v>17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1878,7 +1878,7 @@
         <v>110</v>
       </c>
       <c r="B28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1894,7 +1894,7 @@
         <v>112</v>
       </c>
       <c r="B30">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1902,7 +1902,7 @@
         <v>113</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1926,7 +1926,7 @@
         <v>116</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1995,8 +1995,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
